--- a/resultas/gueret_12_12_2016.xlsx
+++ b/resultas/gueret_12_12_2016.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="72">
   <si>
     <t>Equipe 1, joueurs</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>clemence</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
   </si>
   <si>
     <t>TUNES</t>
@@ -486,14 +504,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,99 +589,95 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <f aca="false">SUM(O3:Q3)</f>
-        <v>0</v>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
         <v>0</v>
@@ -687,7 +701,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>0</v>
@@ -696,31 +710,31 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="7" t="n">
         <v>0</v>
@@ -729,97 +743,97 @@
         <v>0</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5" s="0" t="n">
         <f aca="false">SUM(O5:Q5)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="E6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="P6" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" s="6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R6" s="0" t="n">
         <f aca="false">SUM(O6:Q6)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
@@ -843,97 +857,97 @@
         <v>0</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="0" t="n">
         <f aca="false">SUM(O7:Q7)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R8" s="0" t="n">
         <f aca="false">SUM(O8:Q8)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>5</v>
@@ -945,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="7" t="n">
         <v>0</v>
@@ -963,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R9" s="0" t="n">
         <f aca="false">SUM(O9:Q9)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>0</v>
@@ -987,23 +1001,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" s="7" t="n">
         <v>0</v>
       </c>
@@ -1017,43 +1031,43 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R10" s="0" t="n">
         <f aca="false">SUM(O10:Q10)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="6" t="n">
         <v>0</v>
@@ -1071,100 +1085,100 @@
         <v>0</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R11" s="0" t="n">
         <f aca="false">SUM(O11:Q11)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v>6</v>
-      </c>
       <c r="P12" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R12" s="0" t="n">
         <f aca="false">SUM(O12:Q12)</f>
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0</v>
@@ -1173,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13" s="7" t="n">
         <v>0</v>
@@ -1185,43 +1199,43 @@
         <v>0</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R13" s="0" t="n">
         <f aca="false">SUM(O13:Q13)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
@@ -1239,43 +1253,43 @@
         <v>0</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R14" s="0" t="n">
         <f aca="false">SUM(O14:Q14)</f>
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="6" t="n">
         <v>0</v>
@@ -1287,65 +1301,65 @@
         <v>0</v>
       </c>
       <c r="K15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="L15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R15" s="0" t="n">
         <f aca="false">SUM(O15:Q15)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" s="7" t="n">
         <v>0</v>
       </c>
@@ -1353,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
@@ -1369,33 +1383,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>5</v>
-      </c>
       <c r="F17" s="7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="6" t="n">
         <v>0</v>
@@ -1410,158 +1424,215 @@
         <v>0</v>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R17" s="0" t="n">
         <f aca="false">SUM(O17:Q17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">SUM(O18:Q18)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="9" t="n">
+    <row r="19" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C19" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D19" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E19" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F19" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G19" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H19" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I19" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="n">
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L18" s="10" t="n">
+      <c r="L19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10" t="n">
+      <c r="M19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="O18" s="9" t="n">
+      <c r="O19" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="P18" s="9" t="n">
+      <c r="P19" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="9" t="n">
+      <c r="Q19" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="R18" s="9" t="n">
-        <f aca="false">SUM(R3:R17)</f>
+      <c r="R19" s="9" t="n">
+        <f aca="false">SUM(R4:R18)</f>
         <v>113</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="O19" s="11" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>5</v>
+      <c r="O20" s="11" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>70</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1580,14 +1651,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1597,18 +1668,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>2</v>
@@ -1634,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>6</v>
@@ -1664,896 +1735,949 @@
         <v>11</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>45</v>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>54</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>52</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O10" s="13" t="s">
         <v>54</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="O13" s="13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="O19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="13" t="s">
+      <c r="N20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="Q20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="M21" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="14" t="n">
         <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="G20" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="H20" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="I20" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L20" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="M20" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N20" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O20" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="P20" s="14" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="14" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <v>27</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>56</v>
       </c>
     </row>

--- a/resultas/gueret_12_12_2016.xlsx
+++ b/resultas/gueret_12_12_2016.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="73">
   <si>
     <t>Equipe 1, joueurs</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>4 par table - variante emprunt</t>
+  </si>
+  <si>
+    <t>Note : entre parenthèse, le noeud sur lequel se trouve le joueur</t>
   </si>
   <si>
     <t>Equipe 1, joueurs, 45min</t>
@@ -1658,7 +1661,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R5" activeCellId="0" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1670,16 +1673,19 @@
       <c r="A1" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>2</v>
@@ -1705,19 +1711,19 @@
         <v>8</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>6</v>
@@ -1735,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>18</v>
@@ -1799,52 +1805,52 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,52 +1858,52 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="P7" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,52 +1911,52 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="P8" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,52 +1964,52 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="F9" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,52 +2017,52 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="F10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="M10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="O10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="Q10" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,52 +2070,52 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="Q11" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,52 +2123,52 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="Q12" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,52 +2176,52 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,52 +2229,52 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="Q14" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,52 +2282,52 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="G15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="J15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="O15" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,52 +2335,52 @@
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="M16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,52 +2388,52 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="J17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2435,52 +2441,52 @@
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="O18" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,52 +2494,52 @@
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="Q19" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,52 +2547,52 @@
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="N20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="Q20" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
